--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H2">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I2">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J2">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1547.609350892299</v>
+        <v>6.655243917690222</v>
       </c>
       <c r="R2">
-        <v>13928.48415803069</v>
+        <v>59.897195259212</v>
       </c>
       <c r="S2">
-        <v>0.02327368568528651</v>
+        <v>0.000222105765853226</v>
       </c>
       <c r="T2">
-        <v>0.02327368568528651</v>
+        <v>0.000222105765853226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H3">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I3">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J3">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>2549.553581698036</v>
+        <v>6.453199528395778</v>
       </c>
       <c r="R3">
-        <v>22945.98223528232</v>
+        <v>58.078795755562</v>
       </c>
       <c r="S3">
-        <v>0.03834139969755583</v>
+        <v>0.0002153629290202577</v>
       </c>
       <c r="T3">
-        <v>0.03834139969755583</v>
+        <v>0.0002153629290202577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H4">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I4">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J4">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2256.546959560951</v>
+        <v>6.571462527993333</v>
       </c>
       <c r="R4">
-        <v>20308.92263604856</v>
+        <v>59.14316275194</v>
       </c>
       <c r="S4">
-        <v>0.0339350267175824</v>
+        <v>0.0002193097256249464</v>
       </c>
       <c r="T4">
-        <v>0.0339350267175824</v>
+        <v>0.0002193097256249464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>15.64083466666666</v>
+        <v>0.03958866666666667</v>
       </c>
       <c r="H5">
-        <v>46.922504</v>
+        <v>0.118766</v>
       </c>
       <c r="I5">
-        <v>0.1109322123870545</v>
+        <v>0.0007442768123675562</v>
       </c>
       <c r="J5">
-        <v>0.1109322123870544</v>
+        <v>0.0007442768123675561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1022.849692217031</v>
+        <v>2.621828109944222</v>
       </c>
       <c r="R5">
-        <v>9205.647229953282</v>
+        <v>23.596452989498</v>
       </c>
       <c r="S5">
-        <v>0.0153821002866297</v>
+        <v>8.749839186912617E-05</v>
       </c>
       <c r="T5">
-        <v>0.01538210028662971</v>
+        <v>8.749839186912616E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H6">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J6">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>1.968017358118667</v>
+        <v>3.343648429050889</v>
       </c>
       <c r="R6">
-        <v>17.712156223068</v>
+        <v>30.092835861458</v>
       </c>
       <c r="S6">
-        <v>2.959598130473517E-05</v>
+        <v>0.0001115877350647167</v>
       </c>
       <c r="T6">
-        <v>2.959598130473517E-05</v>
+        <v>0.0001115877350647167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H7">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J7">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>3.242139691998112</v>
+        <v>3.242139691998111</v>
       </c>
       <c r="R7">
         <v>29.179257227983</v>
       </c>
       <c r="S7">
-        <v>4.875683911825037E-05</v>
+        <v>0.0001082000792458259</v>
       </c>
       <c r="T7">
-        <v>4.875683911825036E-05</v>
+        <v>0.0001082000792458259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H8">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J8">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>2.869537834767778</v>
+        <v>3.301555980523333</v>
       </c>
       <c r="R8">
-        <v>25.82584051291001</v>
+        <v>29.71400382471</v>
       </c>
       <c r="S8">
-        <v>4.315347512595288E-05</v>
+        <v>0.0001101829818156284</v>
       </c>
       <c r="T8">
-        <v>4.315347512595288E-05</v>
+        <v>0.0001101829818156284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.01988966666666667</v>
       </c>
       <c r="H9">
-        <v>0.05966900000000001</v>
+        <v>0.059669</v>
       </c>
       <c r="I9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401135</v>
       </c>
       <c r="J9">
-        <v>0.000141066942653426</v>
+        <v>0.0003739306966401134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>1.300706762897778</v>
+        <v>1.317227670311889</v>
       </c>
       <c r="R9">
-        <v>11.70636086608</v>
+        <v>11.855049032807</v>
       </c>
       <c r="S9">
-        <v>1.95606471044876E-05</v>
+        <v>4.395990051394246E-05</v>
       </c>
       <c r="T9">
-        <v>1.95606471044876E-05</v>
+        <v>4.395990051394245E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H10">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I10">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J10">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>12401.36904840017</v>
+        <v>8931.894509544669</v>
       </c>
       <c r="R10">
-        <v>111612.3214356015</v>
+        <v>80387.05058590202</v>
       </c>
       <c r="S10">
-        <v>0.1864976876324083</v>
+        <v>0.298084532302334</v>
       </c>
       <c r="T10">
-        <v>0.1864976876324083</v>
+        <v>0.2980845323023341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H11">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I11">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J11">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>20430.19115714051</v>
+        <v>8660.734024107545</v>
       </c>
       <c r="R11">
-        <v>183871.7204142646</v>
+        <v>77946.60621696791</v>
       </c>
       <c r="S11">
-        <v>0.307238934171249</v>
+        <v>0.2890350807672734</v>
       </c>
       <c r="T11">
-        <v>0.307238934171249</v>
+        <v>0.2890350807672734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H12">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I12">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J12">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>18082.25803522439</v>
+        <v>8819.452870456649</v>
       </c>
       <c r="R12">
-        <v>162740.3223170196</v>
+        <v>79375.07583410984</v>
       </c>
       <c r="S12">
-        <v>0.2719295988677095</v>
+        <v>0.2943320122336024</v>
       </c>
       <c r="T12">
-        <v>0.2719295988677095</v>
+        <v>0.2943320122336024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.3338013333333</v>
+        <v>53.131305</v>
       </c>
       <c r="H13">
-        <v>376.001404</v>
+        <v>159.393915</v>
       </c>
       <c r="I13">
-        <v>0.8889267206702922</v>
+        <v>0.9988817924909924</v>
       </c>
       <c r="J13">
-        <v>0.8889267206702921</v>
+        <v>0.9988817924909923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>8196.342640933477</v>
+        <v>3518.712821018305</v>
       </c>
       <c r="R13">
-        <v>73767.08376840129</v>
+        <v>31668.41538916474</v>
       </c>
       <c r="S13">
-        <v>0.1232604999989253</v>
+        <v>0.1174301671877826</v>
       </c>
       <c r="T13">
-        <v>0.1232604999989253</v>
+        <v>0.1174301671877826</v>
       </c>
     </row>
   </sheetData>
